--- a/ExcelData/ExcelData.xlsx
+++ b/ExcelData/ExcelData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simir\eclipse-workspace\FirstInsightApp\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simir\eclipse-workspace\GrapeApp\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="company" sheetId="1" r:id="rId1"/>
@@ -25,32 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Company</t>
   </si>
   <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>Annual Revenue</t>
-  </si>
-  <si>
-    <t>Employees</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Mopat, Inc.</t>
-  </si>
-  <si>
-    <t>Property</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>Firstname</t>
   </si>
   <si>
@@ -70,6 +49,12 @@
   </si>
   <si>
     <t>(212) 985-9999</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>agmt@example.com</t>
   </si>
 </sst>
 </file>
@@ -387,46 +372,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1000000</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s">
         <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -438,38 +415,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
